--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C73390-F4BF-4C5D-85A9-799F0317B6B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC47E5-B6D6-498A-8E78-ECCACCED4B28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>雙視編輯：貼上至行尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +55,6 @@
   </si>
   <si>
     <t>明眼字編輯視窗的尋找和取代功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擱置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙視編輯時，若跳開編輯視窗再回來時，不會停留在原來編輯的地方，會回到文件最頂端。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,15 +120,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試時並未發現此現象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>問題不易重現，需要檔案和操作步驟的描述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯時，若跳開編輯視窗再回來時，不會停留在原來編輯的地方，會回到文件最頂端。
+此現象只有當垂直卷軸出現時才會發生。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +537,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -564,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -581,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -595,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>1000</v>
@@ -606,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>1000</v>
@@ -623,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -634,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -651,7 +645,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -659,24 +656,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -684,25 +682,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <f>SUM(D3:D12)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC47E5-B6D6-498A-8E78-ECCACCED4B28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17AF2AD-66BA-40D9-B098-D93AE569B01B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>雙視編輯：貼上至行尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,12 +131,19 @@
 此現象只有當垂直卷軸出現時才會發生。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +181,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +232,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,23 +554,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033A1DB-000C-43B8-86AD-56BDCD8FE242}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="56.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -563,11 +584,14 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -581,7 +605,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -595,7 +619,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -609,7 +633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -623,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -636,8 +660,11 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="8">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -651,7 +678,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -664,9 +691,9 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -677,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -690,11 +717,13 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17AF2AD-66BA-40D9-B098-D93AE569B01B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF54015-CB36-4886-B14C-8B555B41A246}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,10 +557,10 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="56.5546875" style="1" customWidth="1"/>
@@ -604,6 +604,7 @@
       <c r="D3" s="2">
         <v>1000</v>
       </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -618,6 +619,7 @@
       <c r="D4" s="2">
         <v>1000</v>
       </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -632,8 +634,9 @@
       <c r="D5" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -646,8 +649,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -664,7 +668,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -677,6 +681,7 @@
       <c r="D8" s="2">
         <v>500</v>
       </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -691,9 +696,12 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
+      <c r="E9" s="8">
+        <v>43445</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -703,6 +711,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -717,13 +726,12 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF54015-CB36-4886-B14C-8B555B41A246}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206C787-2C17-41A3-99C4-D3A88A4F840A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
   <si>
     <t>雙視編輯：貼上至行尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶取消此項。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,6 +250,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC00000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,6 +264,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線接點 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77FD0A1-A814-4EDB-A5D2-2574872E2BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137160" y="960120"/>
+          <a:ext cx="5044440" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000">
+              <a:alpha val="69020"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,7 +628,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -617,9 +688,12 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8"/>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -737,12 +811,13 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D3:D12)</f>
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206C787-2C17-41A3-99C4-D3A88A4F840A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574F0A8-4E9F-4835-8925-DFFF9B2BC385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>雙視編輯：貼上至行尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>客戶取消此項。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯時，滑鼠左鍵點擊兩下後，即可修改字(即F4功能)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brx檔案關聯：於檔案總管中開啟.brx時，可直接進入雙視編輯視窗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +206,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033A1DB-000C-43B8-86AD-56BDCD8FE242}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -672,7 +693,7 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>1000</v>
       </c>
       <c r="E3" s="8"/>
@@ -705,112 +726,142 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>1000</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
-        <v>43444</v>
-      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>43445</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>43444</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="9">
+        <v>500</v>
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="8">
+        <v>43445</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
-        <f>SUM(D3:D12)</f>
+      <c r="D16" s="7">
+        <f>SUM(D3:D14)</f>
         <v>2500</v>
       </c>
     </row>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574F0A8-4E9F-4835-8925-DFFF9B2BC385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3ADDBB-9104-4E25-ADEB-997CA4874E6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,9 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>43448</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -806,7 +808,9 @@
       <c r="D10" s="9">
         <v>500</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>43448</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3ADDBB-9104-4E25-ADEB-997CA4874E6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E921975-47D3-426F-8E57-6A3791388365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>雙視編輯：貼上至行尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +54,6 @@
   </si>
   <si>
     <t>明眼字編輯視窗的尋找和取代功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頁標題編輯視窗加入複製、貼上功能。</t>
-  </si>
-  <si>
-    <t>待評估</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>問題不易重現，需要檔案和操作步驟的描述。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +138,49 @@
   </si>
   <si>
     <t>brx檔案關聯：於檔案總管中開啟.brx時，可直接進入雙視編輯視窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯視窗的插入文字對話框，希望也能有將標籤套用至選取文字的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟體合法授權檢查：
+- 試用期限 30 天過後將完全無法使用。
+- 蒐集使用者電腦與對外 IP 位址等資訊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需測試確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題不易重現，需要檔案和操作步驟的描述。
+此項暫不列入驗收項目，需等到進一步提供可重現問題的檔案和操作步驟來確認問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁標題編輯視窗加入複製、剪下、貼上功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,8 +237,29 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +323,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,7 +368,7 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
@@ -646,24 +717,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033A1DB-000C-43B8-86AD-56BDCD8FE242}">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="56.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -671,202 +743,281 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
         <v>1000</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="8"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
         <v>1000</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>43448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>43444</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9">
         <v>500</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>43448</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>43445</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>500</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7">
-        <f>SUM(D3:D14)</f>
-        <v>2500</v>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
+        <f>SUM(E3:E16)</f>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E921975-47D3-426F-8E57-6A3791388365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA78C84-D51C-47E1-AB6E-AB4DF1F8995B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033A1DB-000C-43B8-86AD-56BDCD8FE242}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -831,7 +831,9 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>43451</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA78C84-D51C-47E1-AB6E-AB4DF1F8995B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068DB4BF-3A99-46BB-AE61-0516E9DFD2A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033A1DB-000C-43B8-86AD-56BDCD8FE242}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -950,7 +950,9 @@
       <c r="E12" s="9">
         <v>500</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>43451</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1010,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>43450</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068DB4BF-3A99-46BB-AE61-0516E9DFD2A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4F021-D5FB-4EF5-9CAC-8BE1EDBE3A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -73,6 +73,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明眼字編輯時要能夠復原上一次的修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯時，若跳開編輯視窗再回來時，不會停留在原來編輯的地方，會回到文件最頂端。
+此現象只有當垂直卷軸出現時才會發生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶取消此項。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯時，滑鼠左鍵點擊兩下後，即可修改字(即F4功能)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brx檔案關聯：於檔案總管中開啟.brx時，可直接進入雙視編輯視窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙視編輯視窗的插入文字對話框，希望也能有將標籤套用至選取文字的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟體合法授權檢查：
+- 試用期限 30 天過後將完全無法使用。
+- 蒐集使用者電腦與對外 IP 位址等資訊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需測試確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題不易重現，需要檔案和操作步驟的描述。
+此項暫不列入驗收項目，需等到進一步提供可重現問題的檔案和操作步驟來確認問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁標題編輯視窗加入複製、剪下、貼上功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>單槓雙向箭頭</t>
     </r>
@@ -80,7 +164,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Malgun Gothic Semilight"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
@@ -97,90 +181,6 @@
       <t>符號：246 25 25 135點。
 點字規則：前後均空方。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明眼字編輯時要能夠復原上一次的修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙視編輯時，若跳開編輯視窗再回來時，不會停留在原來編輯的地方，會回到文件最頂端。
-此現象只有當垂直卷軸出現時才會發生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶取消此項。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙視編輯時，滑鼠左鍵點擊兩下後，即可修改字(即F4功能)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brx檔案關聯：於檔案總管中開啟.brx時，可直接進入雙視編輯視窗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙視編輯視窗的插入文字對話框，希望也能有將標籤套用至選取文字的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軟體合法授權檢查：
-- 試用期限 30 天過後將完全無法使用。
-- 蒐集使用者電腦與對外 IP 位址等資訊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改進</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需測試確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問題不易重現，需要檔案和操作步驟的描述。
-此項暫不列入驗收項目，需等到進一步提供可重現問題的檔案和操作步驟來確認問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頁標題編輯視窗加入複製、剪下、貼上功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,13 +211,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -258,6 +251,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -309,28 +309,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -720,7 +720,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -774,7 +774,9 @@
       <c r="E3" s="9">
         <v>1000</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8">
+        <v>43455</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -784,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -794,18 +796,18 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -813,20 +815,22 @@
       <c r="E5" s="9">
         <v>1000</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>43455</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -840,13 +844,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -863,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -878,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -901,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="9">
         <v>500</v>
@@ -918,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -939,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -962,17 +966,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -980,13 +984,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1000,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1017,7 +1021,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7">
         <f>SUM(E3:E16)</f>

--- a/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
+++ b/Doc/需求/201812 台北市視障者家長協會/201812-需求與費用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bitbucket\easy-braille-edit\Doc\需求\201812 台北市視障者家長協會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4F021-D5FB-4EF5-9CAC-8BE1EDBE3A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343A6A89-BF15-40EA-BD6A-C98519E8AF60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{8338A696-EFC1-4A14-9ABC-C49BC1E60880}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,9 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>43455</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
